--- a/bang_ke/van_loc_phat/example/tool bang ke/tool bang ke TÚ 4T.xlsx
+++ b/bang_ke/van_loc_phat/example/tool bang ke/tool bang ke TÚ 4T.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="56">
   <si>
     <t>Ngày Xuất</t>
   </si>
@@ -29,85 +29,79 @@
     <t>Giá Vận Chuyển</t>
   </si>
   <si>
-    <t>26/11/2025</t>
-  </si>
-  <si>
-    <t>27/11/2025</t>
-  </si>
-  <si>
-    <t>28/11/2025</t>
-  </si>
-  <si>
-    <t>29/11/2025</t>
-  </si>
-  <si>
-    <t>30/11/2025</t>
-  </si>
-  <si>
-    <t>01/12/2025</t>
-  </si>
-  <si>
-    <t>02/12/2025</t>
-  </si>
-  <si>
-    <t>03/12/2025</t>
-  </si>
-  <si>
-    <t>04/12/2025</t>
-  </si>
-  <si>
-    <t>05/12/2025</t>
-  </si>
-  <si>
-    <t>06/12/2025</t>
-  </si>
-  <si>
-    <t>08/12/2025</t>
-  </si>
-  <si>
-    <t>09/12/2025</t>
-  </si>
-  <si>
-    <t>10/12/2025</t>
-  </si>
-  <si>
-    <t>11/12/2025</t>
-  </si>
-  <si>
-    <t>12/12/2025</t>
-  </si>
-  <si>
-    <t>13/12/2025</t>
-  </si>
-  <si>
-    <t>15/12/2025</t>
-  </si>
-  <si>
-    <t>16/12/2025</t>
-  </si>
-  <si>
-    <t>17/12/2025</t>
-  </si>
-  <si>
-    <t>18/12/2025</t>
-  </si>
-  <si>
-    <t>19/12/2025</t>
-  </si>
-  <si>
-    <t>20/12/2025</t>
-  </si>
-  <si>
-    <t>22/12/2025</t>
-  </si>
-  <si>
-    <t>23/12/2025</t>
-  </si>
-  <si>
-    <t>24/12/2025</t>
-  </si>
-  <si>
-    <t>25/12/2025</t>
+    <t>26/12/2025</t>
+  </si>
+  <si>
+    <t>27/12/2025</t>
+  </si>
+  <si>
+    <t>29/12/2025</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>03/01/2026</t>
+  </si>
+  <si>
+    <t>05/01/2026</t>
+  </si>
+  <si>
+    <t>06/01/2026</t>
+  </si>
+  <si>
+    <t>07/01/2026</t>
+  </si>
+  <si>
+    <t>08/01/2026</t>
+  </si>
+  <si>
+    <t>09/01/2026</t>
+  </si>
+  <si>
+    <t>10/01/2026</t>
+  </si>
+  <si>
+    <t>12/01/2026</t>
+  </si>
+  <si>
+    <t>13/01/2026</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>17/01/2026</t>
+  </si>
+  <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>20/01/2026</t>
+  </si>
+  <si>
+    <t>21/01/2026</t>
+  </si>
+  <si>
+    <t>22/01/2026</t>
+  </si>
+  <si>
+    <t>23/01/2026</t>
+  </si>
+  <si>
+    <t>24/01/2026</t>
+  </si>
+  <si>
+    <t>CU CHI</t>
   </si>
   <si>
     <t>TAN UYEN</t>
@@ -116,85 +110,79 @@
     <t>Q9</t>
   </si>
   <si>
+    <t>BINH CHANH</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>BINH TAN</t>
+  </si>
+  <si>
     <t>MP3</t>
   </si>
   <si>
-    <t>BEN CAT</t>
-  </si>
-  <si>
-    <t>BINH CHANH</t>
+    <t>MP1</t>
   </si>
   <si>
     <t>HOC MON</t>
   </si>
   <si>
-    <t>CU CHI</t>
+    <t>CAN GIUOC</t>
   </si>
   <si>
     <t>DUC HOA</t>
   </si>
   <si>
-    <t>VSIP 2A</t>
+    <t>NHON TRACH</t>
+  </si>
+  <si>
+    <t>THU DUC</t>
   </si>
   <si>
     <t>DI AN</t>
   </si>
   <si>
-    <t>Q12</t>
-  </si>
-  <si>
     <t>BIEN HOA</t>
   </si>
   <si>
-    <t>NHON TRACH</t>
-  </si>
-  <si>
-    <t>BINH TAN</t>
-  </si>
-  <si>
-    <t>THU DUC</t>
-  </si>
-  <si>
-    <t>THUAN AN</t>
-  </si>
-  <si>
-    <t>TDM</t>
-  </si>
-  <si>
-    <t>VSIP 2</t>
-  </si>
-  <si>
-    <t>LAM DONG</t>
-  </si>
-  <si>
-    <t>NHA BE</t>
-  </si>
-  <si>
-    <t>LONG KHANH</t>
-  </si>
-  <si>
-    <t>MP3 - BEN CAT</t>
-  </si>
-  <si>
-    <t>DUC HOA - BINH CHANH</t>
+    <t>DA LAT</t>
+  </si>
+  <si>
+    <t>TAN UYEN - Q9</t>
+  </si>
+  <si>
+    <t>BINH CHANH - BINH TAN</t>
+  </si>
+  <si>
+    <t>MP3 - MP1</t>
+  </si>
+  <si>
+    <t>Q12 - BINH CHANH</t>
+  </si>
+  <si>
+    <t>BINH TAN - BINH CHANH</t>
+  </si>
+  <si>
+    <t>HOC MON - BINH CHANH</t>
+  </si>
+  <si>
+    <t>DUC HOA - HOC MON</t>
+  </si>
+  <si>
+    <t>Q9 - THU DUC</t>
   </si>
   <si>
     <t>DI AN - Q9</t>
   </si>
   <si>
-    <t>BINH CHANH - BINH TAN</t>
-  </si>
-  <si>
     <t>CU CHI - HOC MON</t>
   </si>
   <si>
-    <t>THU DUC - Q12 - THUAN AN</t>
-  </si>
-  <si>
-    <t>TDM - VSIP 2</t>
-  </si>
-  <si>
-    <t>TDM - MP3</t>
+    <t>HOC MON - CU CHI</t>
+  </si>
+  <si>
+    <t>BIEN HOA - TAN UYEN</t>
   </si>
 </sst>
 </file>
@@ -558,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
-        <v>2958</v>
+        <v>3540</v>
       </c>
       <c r="D2" s="1">
-        <v>950000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -572,51 +560,51 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>5638</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1">
-        <v>1805200</v>
+        <v>1876400</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4116</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1">
-        <v>453</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1030000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>940</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>1550</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2250000</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>2650</v>
+        <v>1847</v>
       </c>
       <c r="D6" s="1">
-        <v>1450000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -624,551 +612,523 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
-        <v>1903</v>
+        <v>1012</v>
       </c>
       <c r="D7" s="1">
-        <v>1300000</v>
+        <v>1790000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>3780</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1200000</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>1547</v>
+        <v>3048</v>
       </c>
       <c r="D9" s="1">
-        <v>1600000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1670</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1130000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1">
-        <v>1442</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C11" s="1">
-        <v>5186</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1874400</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>828</v>
+        <v>1791</v>
       </c>
       <c r="D12" s="1">
-        <v>650000</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
-        <v>1570</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1200000</v>
-      </c>
+        <v>1705</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
-        <v>2474</v>
+        <v>1560</v>
       </c>
       <c r="D14" s="1">
-        <v>1300000</v>
+        <v>1670000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>1261</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1450000</v>
-      </c>
+        <v>1988</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
-        <v>5538</v>
+        <v>1260</v>
       </c>
       <c r="D16" s="1">
-        <v>1765200</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>2400</v>
+        <v>944</v>
       </c>
       <c r="D17" s="1">
-        <v>1730000</v>
+        <v>1660000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>368</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>850000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
-        <v>2305</v>
+        <v>2326</v>
       </c>
       <c r="D20" s="1">
-        <v>2100000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
-        <v>282</v>
+        <v>663</v>
       </c>
       <c r="D21" s="1">
-        <v>1932400</v>
+        <v>2230000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1">
-        <v>4581</v>
+        <v>900</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
-        <v>5278</v>
+        <v>837</v>
       </c>
       <c r="D23" s="1">
-        <v>1921200</v>
+        <v>1645000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
-        <v>2238</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1950000</v>
-      </c>
+        <v>1288</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>3189</v>
+        <v>2018</v>
       </c>
       <c r="D25" s="1">
-        <v>1660000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
-        <v>589</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>950</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1730000</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
-        <v>4162</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1900000</v>
-      </c>
+        <v>1281</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
-        <v>616</v>
+        <v>2745</v>
       </c>
       <c r="D28" s="1">
-        <v>1750000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>2040</v>
+        <v>5676</v>
       </c>
       <c r="D29" s="1">
-        <v>1380000</v>
+        <v>2200400</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
-        <v>850</v>
+        <v>203</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
-        <v>588</v>
+        <v>3215</v>
       </c>
       <c r="D31" s="1">
-        <v>1510000</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>180</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="1">
-        <v>300</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C33" s="1">
-        <v>496</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>561</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2027600</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>3080</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1150000</v>
-      </c>
+        <v>4869</v>
+      </c>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
-        <v>2047</v>
+        <v>2500</v>
       </c>
       <c r="D35" s="1">
-        <v>1950000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <v>392</v>
-      </c>
-      <c r="D36" s="1">
-        <v>780000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1">
-        <v>535</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>4077</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1250000</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>3793</v>
+        <v>1040</v>
       </c>
       <c r="D38" s="1">
-        <v>1567200</v>
+        <v>1510000</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1">
-        <v>369</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1080000</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1">
-        <v>1209</v>
+        <v>3035</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>2994</v>
+        <v>2500</v>
       </c>
       <c r="D41" s="1">
-        <v>2300000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1">
-        <v>1270</v>
+        <v>1131</v>
       </c>
       <c r="D42" s="1">
-        <v>1600000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1">
-        <v>2153</v>
+        <v>3200</v>
       </c>
       <c r="D43" s="1">
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1">
-        <v>2397</v>
+        <v>2525</v>
       </c>
       <c r="D44" s="1">
-        <v>2100000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1">
-        <v>2880</v>
+        <v>5422</v>
       </c>
       <c r="D45" s="1">
-        <v>750000</v>
+        <v>1978000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1">
-        <v>603</v>
+        <v>718</v>
       </c>
       <c r="D46" s="1">
-        <v>1725600</v>
+        <v>1660000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
-        <v>3489</v>
+        <v>942</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1">
-        <v>4200</v>
+        <v>2527</v>
       </c>
       <c r="D48" s="1">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1203,13 +1163,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
-        <v>2958</v>
+        <v>3540</v>
       </c>
       <c r="D2" s="1">
-        <v>950000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1217,13 +1177,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
-        <v>5638</v>
+        <v>4259</v>
       </c>
       <c r="D3" s="1">
-        <v>1805200</v>
+        <v>1876400</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1231,27 +1191,27 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
-        <v>1393</v>
+        <v>1550</v>
       </c>
       <c r="D4" s="1">
-        <v>1030000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
-        <v>2650</v>
+        <v>1847</v>
       </c>
       <c r="D5" s="1">
-        <v>1450000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1259,27 +1219,27 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
-        <v>1903</v>
+        <v>2129</v>
       </c>
       <c r="D6" s="1">
-        <v>1300000</v>
+        <v>1790000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>3780</v>
+        <v>3048</v>
       </c>
       <c r="D7" s="1">
-        <v>1200000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1287,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
-        <v>1547</v>
+        <v>1770</v>
       </c>
       <c r="D8" s="1">
-        <v>1600000</v>
+        <v>1130000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1301,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
-        <v>1442</v>
+        <v>3496</v>
       </c>
       <c r="D9" s="1">
-        <v>1500000</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1315,13 +1275,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
-        <v>5186</v>
+        <v>3548</v>
       </c>
       <c r="D10" s="1">
-        <v>1874400</v>
+        <v>1670000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1329,391 +1289,293 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>828</v>
+        <v>1260</v>
       </c>
       <c r="D11" s="1">
-        <v>650000</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>1570</v>
+        <v>2944</v>
       </c>
       <c r="D12" s="1">
-        <v>1200000</v>
+        <v>1660000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>2474</v>
+        <v>2326</v>
       </c>
       <c r="D13" s="1">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>1261</v>
+        <v>1563</v>
       </c>
       <c r="D14" s="1">
-        <v>1450000</v>
+        <v>2230000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
-        <v>5538</v>
+        <v>2125</v>
       </c>
       <c r="D15" s="1">
-        <v>1765200</v>
+        <v>1645000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
-        <v>2768</v>
+        <v>2018</v>
       </c>
       <c r="D16" s="1">
-        <v>1730000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
-        <v>3000</v>
+        <v>2231</v>
       </c>
       <c r="D17" s="1">
-        <v>850000</v>
+        <v>1730000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
-        <v>2305</v>
+        <v>2745</v>
       </c>
       <c r="D18" s="1">
-        <v>2100000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1">
-        <v>4863</v>
+        <v>5879</v>
       </c>
       <c r="D19" s="1">
-        <v>1932400</v>
+        <v>2200400</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
-        <v>5278</v>
+        <v>3395</v>
       </c>
       <c r="D20" s="1">
-        <v>1921200</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1">
-        <v>2238</v>
+        <v>5430</v>
       </c>
       <c r="D21" s="1">
-        <v>1950000</v>
+        <v>2027600</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
-        <v>3778</v>
+        <v>4500</v>
       </c>
       <c r="D22" s="1">
-        <v>1660000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>4162</v>
+        <v>4077</v>
       </c>
       <c r="D23" s="1">
-        <v>1900000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1">
-        <v>616</v>
+        <v>4479</v>
       </c>
       <c r="D24" s="1">
-        <v>1750000</v>
+        <v>1510000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1">
-        <v>2890</v>
+        <v>2500</v>
       </c>
       <c r="D25" s="1">
-        <v>1380000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>1384</v>
+        <v>1131</v>
       </c>
       <c r="D26" s="1">
-        <v>1510000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1">
-        <v>3080</v>
+        <v>3200</v>
       </c>
       <c r="D27" s="1">
-        <v>1150000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>2047</v>
+        <v>2525</v>
       </c>
       <c r="D28" s="1">
-        <v>1950000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>927</v>
+        <v>5422</v>
       </c>
       <c r="D29" s="1">
-        <v>780000</v>
+        <v>1978000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1">
-        <v>3793</v>
+        <v>1660</v>
       </c>
       <c r="D30" s="1">
-        <v>1567200</v>
+        <v>1660000</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
-        <v>1578</v>
+        <v>2527</v>
       </c>
       <c r="D31" s="1">
-        <v>1080000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2994</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2300000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1270</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2153</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2397</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2880</v>
-      </c>
-      <c r="D36" s="1">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4092</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1725600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4200</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
     </row>
   </sheetData>
